--- a/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca Sub_Plot T3 upload.xlsx
+++ b/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca Sub_Plot T3 upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2024_winter\2024_winter_intercrop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1258CA0-944F-4815-8817-94FB68820DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817CA64-5D1A-4AC5-BC28-FDA55470AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{3B0CAFBE-2B94-485F-A42E-E415A0455EE9}"/>
+    <workbookView xWindow="2772" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{3B0CAFBE-2B94-485F-A42E-E415A0455EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1160">
   <si>
     <t>observationunit_name</t>
   </si>
@@ -3474,6 +3474,48 @@
   </si>
   <si>
     <t>Weed above ground dry biomass - g|day 168|COMP:0000066</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - index|day 111|COMP:0000096</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - index|day 133|COMP:0000097</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - index|day 166|COMP:0000098</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - index|day 190|COMP:0000099</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - index|day 290|COMP:0000100</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - index|day 320|COMP:0000101</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - index|day 92|COMP:0000102</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - standard deviation|day 111|COMP:0000103</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - standard deviation|day 133|COMP:0000104</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - standard deviation|day 166|COMP:0000105</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - standard deviation|day 190|COMP:0000106</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - standard deviation|day 290|COMP:0000107</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - standard deviation|day 320|COMP:0000108</t>
+  </si>
+  <si>
+    <t>Canopy NDVI - UAS - standard deviation|day 92|COMP:0000109</t>
   </si>
 </sst>
 </file>
@@ -3515,9 +3557,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3852,10 +3895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193163FC-5AE5-4F2C-88C0-385706B2B0B1}">
-  <dimension ref="A1:K1135"/>
+  <dimension ref="A1:Y1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,9 +3914,13 @@
     <col min="9" max="9" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="57.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3907,8 +3954,50 @@
       <c r="K1" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3934,7 +4023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3960,7 +4049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3995,7 +4084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4021,7 +4110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4047,7 +4136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4082,7 +4171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4105,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4131,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4166,7 +4255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4192,7 +4281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4218,7 +4307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -4253,7 +4342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4279,7 +4368,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -4305,7 +4394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
